--- a/Assets/Excel/StageGroupTable.xlsx
+++ b/Assets/Excel/StageGroupTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFork\FlowerGarden\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Fork\FlowerGarden\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DB134C-9766-48C4-B8D9-4F917E1C4846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A61B697-129D-4228-9FA6-EAC71DFE1CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39990" yWindow="4160" windowWidth="28800" windowHeight="15370" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="StageGroupTable" sheetId="1" r:id="rId1"/>
@@ -505,25 +505,25 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.9140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -593,7 +593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -628,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>100000000001</v>
       </c>
@@ -698,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>100000000002</v>
       </c>
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>100000000003</v>
       </c>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>100000000004</v>
       </c>
@@ -803,7 +803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>100000000005</v>
       </c>
@@ -838,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>100000000006</v>
       </c>
@@ -873,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100000000007</v>
       </c>
@@ -908,7 +908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>100000000008</v>
       </c>
@@ -943,7 +943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>100000000009</v>
       </c>
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>100000000010</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>100000000011</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>100000000012</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>100000000013</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>100000000014</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>100000000015</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>100000000016</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>100000000017</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>100000000018</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>100000000019</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>100000000020</v>
       </c>
